--- a/entry/eb11/eb11-entries-r.xlsx
+++ b/entry/eb11/eb11-entries-r.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eb-corpus\digital-edition\xml\eb11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\eb-corpus\digital-edition\xml\eb11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C482E1-B0E7-4BC5-91EE-669C46B3626D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20550" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20550" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="eb11-r01" sheetId="2" r:id="rId1"/>
@@ -37,8 +36,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Entry_Stats" type="6" refreshedVersion="5" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Entry_Stats" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="I:\eb-corpus\digital-edition\xml\eb11\r05\Entry_Stats.txt" delimited="0">
       <textFields count="5">
         <textField/>
@@ -49,7 +48,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Entry_Stats1" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="2" name="Entry_Stats1" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="I:\eb-corpus\digital-edition\xml\eb11\r05\Entry_Stats.txt" delimited="0">
       <textFields count="5">
         <textField/>
@@ -60,7 +59,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" name="Entry_Stats2" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="3" name="Entry_Stats2" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="I:\eb-corpus\digital-edition\xml\eb11\Entry_Stats.txt" delimited="0">
       <textFields count="5">
         <textField/>
@@ -71,7 +70,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" name="Entry_Stats3" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="4" name="Entry_Stats3" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="65001" firstRow="2" sourceFile="I:\eb-corpus\digital-edition\xml\eb11\Entry_Stats.txt" delimited="0">
       <textFields count="5">
         <textField/>
@@ -82,7 +81,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" xr16:uid="{00000000-0015-0000-FFFF-FFFF04000000}" name="Entry_Stats4" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="5" name="Entry_Stats4" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="I:\eb-corpus\digital-edition\xml\eb11\Entry_Stats.txt" delimited="0">
       <textFields count="5">
         <textField/>
@@ -93,7 +92,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" xr16:uid="{00000000-0015-0000-FFFF-FFFF05000000}" name="Entry_Stats5" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="6" name="Entry_Stats5" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="D:\eb-corpus\digital-edition\xml\eb11\r01\Entry_Stats.txt" delimited="0">
       <textFields count="5">
         <textField/>
@@ -8348,7 +8347,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
@@ -8415,27 +8414,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Entry_Stats" connectionId="6" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Entry_Stats" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Entry_Stats" connectionId="5" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Entry_Stats" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Entry_Stats_1" connectionId="4" xr16:uid="{00000000-0016-0000-0200-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Entry_Stats_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Entry_Stats" connectionId="3" xr16:uid="{00000000-0016-0000-0300-000003000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Entry_Stats" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Entry_Stats_1" connectionId="2" xr16:uid="{00000000-0016-0000-0400-000005000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Entry_Stats" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Entry_Stats" connectionId="1" xr16:uid="{00000000-0016-0000-0400-000004000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Entry_Stats_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8700,12 +8699,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J380"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14226,7 +14225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18337,7 +18336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23323,7 +23322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25460,7 +25459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
